--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HẢI VUI/Hải Vui.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HẢI VUI/Hải Vui.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
   <si>
-    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
-  </si>
-  <si>
     <t>Số HĐ</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Thành tiền (VNĐ)</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP HẢI VUI NHẬP HÀNG</t>
-  </si>
-  <si>
     <t>Thanh Hóa</t>
   </si>
   <si>
@@ -102,13 +96,52 @@
     <t>BCX45</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP HẢI VUI TRẢ  HÀNG</t>
-  </si>
-  <si>
     <t>Tổng cộng</t>
   </si>
   <si>
     <t>Tên KH</t>
+  </si>
+  <si>
+    <t>Như vậy:</t>
+  </si>
+  <si>
+    <t>Số hàng đã chuyển cho đại lý</t>
+  </si>
+  <si>
+    <t>Tình trạng thanh toán</t>
+  </si>
+  <si>
+    <t>Cần phải thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số hàng đại lý đã trả </t>
+  </si>
+  <si>
+    <t>Đại lý cần phải thanh toán cho công ty</t>
+  </si>
+  <si>
+    <t>Đã thanh toán ngày 9/7/2020</t>
+  </si>
+  <si>
+    <t>ĐL Còn nợ công ty</t>
+  </si>
+  <si>
+    <t>Đại lý đã nhập đủ số hàng theo doanh số ký hợp đồng, Nếu nhập tiếp các đơn hàng sau chiết khấu 41% trực tiếp theo đơn hàng.</t>
+  </si>
+  <si>
+    <t>Số hàng đại lý nhập hàng theo hợp đồng 150tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:250820HV/PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP HẢI VUI NHẬP HÀNG 25/08/2020</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP HẢI VUI TRẢ  HÀNG 25/08/2020</t>
+  </si>
+  <si>
+    <t>T/M BAN LÃNH ĐẠO</t>
   </si>
 </sst>
 </file>
@@ -119,9 +152,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +213,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -195,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -337,13 +393,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,24 +513,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -413,12 +532,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -428,92 +541,107 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -522,6 +650,73 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -805,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,16 +1015,18 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="0.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,9 +1037,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -851,592 +1048,802 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="J3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:18" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="J5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>1195</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44010</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>1195</v>
-      </c>
-      <c r="B7" s="25">
-        <v>44010</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="F7" s="18">
         <v>60</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="19">
         <v>455000</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="19">
         <f t="shared" ref="H7:H24" si="0">F7*G7</f>
         <v>27300000</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="41">
         <v>1194</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="44">
         <v>44021</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="25">
         <v>12</v>
       </c>
-      <c r="N7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="43">
-        <v>12</v>
-      </c>
-      <c r="P7" s="44">
+      <c r="P7" s="26">
         <v>485000</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="26">
         <f t="shared" ref="Q7:Q10" si="1">P7*O7</f>
         <v>5820000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="31">
+    <row r="8" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="21">
         <v>36</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="22">
         <v>465000</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="22">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="45">
+      <c r="J8" s="42"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="27">
         <v>12</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="28">
         <v>485000</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="28">
         <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="31">
+    <row r="9" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21">
         <v>36</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="22">
         <v>475000</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="45">
+      <c r="J9" s="42"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="27">
         <v>8</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="28">
         <v>455000</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="28">
         <f t="shared" si="1"/>
         <v>3640000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="31">
+    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="21">
         <v>48</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="22">
         <v>485000</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>23280000</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="47">
+      <c r="J10" s="43"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="29">
         <v>12</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="30">
         <v>455000</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="30">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="31">
+    <row r="11" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21">
         <v>24</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="22">
         <v>485000</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55">
+      <c r="J11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="31">
         <f>SUM(O7:O10)</f>
         <v>44</v>
       </c>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32">
         <f>SUM(Q7:Q10)</f>
         <v>20740000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="31">
+    <row r="12" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="21">
         <v>72</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="22">
         <v>550000</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="22">
         <f t="shared" si="0"/>
         <v>39600000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="31">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="21">
         <v>60</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="22">
         <v>455000</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="22">
         <f t="shared" si="0"/>
         <v>27300000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="35">
+    <row r="14" spans="1:18" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="23">
         <v>48</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="24">
         <v>455000</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="24">
         <f t="shared" si="0"/>
         <v>21840000</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="J14" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="64"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="65"/>
+    </row>
+    <row r="15" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
         <v>1196</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="54">
         <v>44011</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="60" t="s">
+      <c r="C15" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="18">
         <v>12</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="26">
-        <v>12</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="G15" s="19">
         <v>455000</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="J15" s="4"/>
+      <c r="K15" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="70">
+        <f>150000000+150000000*44%</f>
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="32">
+      <c r="F16" s="21">
+        <v>12</v>
+      </c>
+      <c r="G16" s="22">
         <v>465000</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="J16" s="4"/>
+      <c r="K16" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70">
+        <f>H25</f>
+        <v>236890000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="21">
         <v>12</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="22">
         <v>475000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="31">
+      <c r="K17" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70">
+        <f>Q11</f>
+        <v>20740000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21">
         <v>12</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="22">
         <v>485000</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="22">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="35">
+      <c r="J18" s="4"/>
+      <c r="K18" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="70">
+        <f>Q16-Q17-Q15</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="23">
         <v>12</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="24">
         <v>455000</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="24">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="O19" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+    </row>
+    <row r="20" spans="1:18" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="41">
         <v>1191</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="44">
         <v>44021</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="26">
+      <c r="C20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="18">
         <v>47</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="19">
         <v>225000</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>10575000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="J20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="64"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="65"/>
+    </row>
+    <row r="21" spans="1:18" s="20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="21">
         <v>13</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="22">
         <v>265000</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="22">
         <f t="shared" si="0"/>
         <v>3445000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="31">
+      <c r="J21" s="4"/>
+      <c r="K21" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="72">
+        <f>150000000+150000</f>
+        <v>150150000</v>
+      </c>
+      <c r="R21" s="65"/>
+    </row>
+    <row r="22" spans="1:18" s="20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="21">
         <v>21</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="22">
         <v>275000</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="22">
         <f t="shared" si="0"/>
         <v>5775000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="31">
+      <c r="J22" s="4"/>
+      <c r="K22" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="76"/>
+      <c r="M22" s="74">
+        <v>43949</v>
+      </c>
+      <c r="N22" s="74"/>
+      <c r="O22" s="73">
+        <v>10000000</v>
+      </c>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="78">
+        <f>SUM(O22:O26)</f>
+        <v>105150000</v>
+      </c>
+      <c r="R22" s="65"/>
+    </row>
+    <row r="23" spans="1:18" s="20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="21">
         <v>8</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="22">
         <v>285000</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="22">
         <f t="shared" si="0"/>
         <v>2280000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="35">
+      <c r="J23" s="4"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="74">
+        <v>44009</v>
+      </c>
+      <c r="N23" s="74"/>
+      <c r="O23" s="73">
+        <v>95000000</v>
+      </c>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" spans="1:18" s="20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="23">
         <v>7</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="24">
         <v>285000</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="24">
         <f t="shared" si="0"/>
         <v>1995000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58">
+      <c r="J24" s="4"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="74">
+        <v>44021</v>
+      </c>
+      <c r="N24" s="74"/>
+      <c r="O24" s="73">
+        <v>150000</v>
+      </c>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="65"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="33">
         <f>SUM(F7:F24)</f>
         <v>540</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59">
+      <c r="G25" s="33"/>
+      <c r="H25" s="34">
         <f>SUM(H7:H24)</f>
         <v>236890000</v>
       </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="82">
+        <f>Q21-Q22</f>
+        <v>45000000</v>
+      </c>
+      <c r="R25" s="65"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+      <c r="R26" s="65"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+    </row>
+    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N29" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="42">
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="K22:L24"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D7:D14"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="L5:M5"/>
@@ -1449,25 +1856,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D7:D14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
-  <pageMargins left="0.23" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23" right="0.2" top="0.46" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>